--- a/GP-urenplanning en -verantwoording 2018.xlsx
+++ b/GP-urenplanning en -verantwoording 2018.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avandoesburg\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\E6AP9SG5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trvan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Totaal</t>
   </si>
   <si>
-    <t>teamlid 4</t>
-  </si>
-  <si>
-    <t>pietersen</t>
-  </si>
-  <si>
     <t>groep:</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>______________</t>
   </si>
   <si>
-    <t>jansen [project leider]</t>
-  </si>
-  <si>
     <t xml:space="preserve">planning en registratie van de uren </t>
   </si>
   <si>
@@ -77,15 +68,9 @@
     <t>opgeleverd</t>
   </si>
   <si>
-    <t>teamlid 5</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Klaasen </t>
-  </si>
-  <si>
     <t>prweek</t>
   </si>
   <si>
@@ -98,9 +83,6 @@
     <t>tentamen</t>
   </si>
   <si>
-    <t>Start van het project- dag 1</t>
-  </si>
-  <si>
     <t>dag - 2</t>
   </si>
   <si>
@@ -135,6 +117,45 @@
   </si>
   <si>
     <t>vergadering met team</t>
+  </si>
+  <si>
+    <t>Marc Zoomers</t>
+  </si>
+  <si>
+    <t>Jasper Winthers</t>
+  </si>
+  <si>
+    <t>Tony van der Krogt</t>
+  </si>
+  <si>
+    <t>Matthies Brouwer</t>
+  </si>
+  <si>
+    <t>Niels Risseeuw</t>
+  </si>
+  <si>
+    <t>dag - 1</t>
+  </si>
+  <si>
+    <t>Brick Pi Installaties</t>
+  </si>
+  <si>
+    <t>Github schoonmaken</t>
+  </si>
+  <si>
+    <t>Frame van code</t>
+  </si>
+  <si>
+    <t>Robot basis bouwen</t>
+  </si>
+  <si>
+    <t>Licht sensoren</t>
+  </si>
+  <si>
+    <t>Ultra soon sensor</t>
+  </si>
+  <si>
+    <t>Motoren laten werken</t>
   </si>
 </sst>
 </file>
@@ -273,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -413,6 +434,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,7 +472,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -486,7 +510,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -521,6 +545,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -556,9 +597,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -732,92 +790,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="1" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="47"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1"/>
       <c r="D1" s="21"/>
       <c r="E1" s="22"/>
       <c r="F1" s="29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C2" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>9</v>
       </c>
       <c r="P2" s="43"/>
       <c r="Q2" s="43"/>
     </row>
-    <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="61"/>
+    <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="61"/>
+      <c r="J3" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="60"/>
+      <c r="L3" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="62"/>
       <c r="N3" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P3" s="43"/>
       <c r="Q3" s="43"/>
     </row>
-    <row r="4" spans="1:17" s="5" customFormat="1" ht="44.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
@@ -856,12 +914,12 @@
         <v>1</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P4" s="43"/>
       <c r="Q4" s="43"/>
     </row>
-    <row r="5" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40">
         <v>1</v>
       </c>
@@ -869,7 +927,7 @@
         <v>43185</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -889,7 +947,7 @@
       <c r="P5" s="48"/>
       <c r="Q5" s="43"/>
     </row>
-    <row r="6" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -897,7 +955,7 @@
         <v>43186</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -917,15 +975,15 @@
       <c r="P6" s="48"/>
       <c r="Q6" s="43"/>
     </row>
-    <row r="7" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>1</v>
       </c>
       <c r="B7" s="39">
         <v>43187</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>24</v>
+      <c r="C7" s="56" t="s">
+        <v>36</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -938,14 +996,14 @@
       <c r="L7" s="45"/>
       <c r="M7" s="45"/>
       <c r="N7" s="4">
-        <f t="shared" ref="N7:N20" si="0">E7+G7+I7+K7+M7</f>
+        <f t="shared" ref="N7:N21" si="0">E7+G7+I7+K7+M7</f>
         <v>0</v>
       </c>
       <c r="O7" s="42"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="43"/>
     </row>
-    <row r="8" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
         <v>1</v>
       </c>
@@ -953,17 +1011,27 @@
         <v>43187</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
       <c r="E8" s="16"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="45"/>
+      <c r="L8" s="45">
+        <v>1</v>
+      </c>
       <c r="M8" s="45"/>
       <c r="N8" s="4">
         <f t="shared" si="0"/>
@@ -973,15 +1041,19 @@
       <c r="P8" s="43"/>
       <c r="Q8" s="43"/>
     </row>
-    <row r="9" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
         <v>1</v>
       </c>
       <c r="B9" s="39">
         <v>43187</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -989,7 +1061,9 @@
       <c r="I9" s="13"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="45"/>
+      <c r="L9" s="45">
+        <v>2</v>
+      </c>
       <c r="M9" s="45"/>
       <c r="N9" s="4">
         <f t="shared" si="0"/>
@@ -999,19 +1073,23 @@
       <c r="P9" s="43"/>
       <c r="Q9" s="43"/>
     </row>
-    <row r="10" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>1</v>
       </c>
       <c r="B10" s="39">
         <v>43187</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1025,21 +1103,27 @@
       <c r="P10" s="43"/>
       <c r="Q10" s="43"/>
     </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>1</v>
       </c>
       <c r="B11" s="39">
         <v>43187</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="8">
+        <v>2</v>
+      </c>
       <c r="K11" s="8"/>
       <c r="L11" s="45"/>
       <c r="M11" s="45"/>
@@ -1051,23 +1135,31 @@
       <c r="P11" s="43"/>
       <c r="Q11" s="43"/>
     </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>1</v>
       </c>
       <c r="B12" s="39">
         <v>43187</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="13">
+        <v>2</v>
+      </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="8"/>
+      <c r="J12" s="8">
+        <v>2</v>
+      </c>
       <c r="K12" s="8"/>
-      <c r="L12" s="45"/>
+      <c r="L12" s="45">
+        <v>2</v>
+      </c>
       <c r="M12" s="45"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
@@ -1077,19 +1169,21 @@
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
     </row>
-    <row r="13" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52">
+    <row r="13" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57">
         <v>1</v>
       </c>
       <c r="B13" s="39">
-        <v>43188</v>
+        <v>43187</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8">
+        <v>2</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -1097,22 +1191,21 @@
       <c r="K13" s="8"/>
       <c r="L13" s="45"/>
       <c r="M13" s="45"/>
-      <c r="N13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N13" s="4"/>
       <c r="O13" s="42"/>
       <c r="P13" s="43"/>
       <c r="Q13" s="43"/>
     </row>
-    <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53">
+    <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52">
         <v>1</v>
       </c>
       <c r="B14" s="39">
         <v>43188</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="56" t="s">
+        <v>19</v>
+      </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="8"/>
@@ -1131,15 +1224,19 @@
       <c r="P14" s="43"/>
       <c r="Q14" s="43"/>
     </row>
-    <row r="15" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53">
         <v>1</v>
       </c>
       <c r="B15" s="39">
         <v>43188</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="16">
+        <v>3</v>
+      </c>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1147,7 +1244,9 @@
       <c r="I15" s="13"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="45"/>
+      <c r="L15" s="45">
+        <v>4</v>
+      </c>
       <c r="M15" s="45"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
@@ -1157,21 +1256,27 @@
       <c r="P15" s="43"/>
       <c r="Q15" s="43"/>
     </row>
-    <row r="16" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53">
         <v>1</v>
       </c>
       <c r="B16" s="39">
         <v>43188</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8">
+        <v>4</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8">
+        <v>2</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="45"/>
       <c r="M16" s="45"/>
@@ -1183,19 +1288,25 @@
       <c r="P16" s="43"/>
       <c r="Q16" s="43"/>
     </row>
-    <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
         <v>1</v>
       </c>
       <c r="B17" s="39">
         <v>43188</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="13">
+        <v>2</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1209,7 +1320,7 @@
       <c r="P17" s="43"/>
       <c r="Q17" s="43"/>
     </row>
-    <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53">
         <v>1</v>
       </c>
@@ -1235,7 +1346,7 @@
       <c r="P18" s="43"/>
       <c r="Q18" s="43"/>
     </row>
-    <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53">
         <v>1</v>
       </c>
@@ -1261,16 +1372,14 @@
       <c r="P19" s="43"/>
       <c r="Q19" s="43"/>
     </row>
-    <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53">
         <v>1</v>
       </c>
-      <c r="B20" s="55">
-        <v>43189</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>22</v>
-      </c>
+      <c r="B20" s="39">
+        <v>43188</v>
+      </c>
+      <c r="C20" s="11"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="8"/>
@@ -1289,97 +1398,97 @@
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
     </row>
-    <row r="21" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="32">
-        <f t="shared" ref="D21:N21" si="1">SUM(D5:D20)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="33"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-    </row>
-    <row r="22" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54">
-        <v>2</v>
-      </c>
-      <c r="B22" s="55">
+    <row r="21" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53">
+        <v>1</v>
+      </c>
+      <c r="B21" s="55">
+        <v>43189</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="42"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+    </row>
+    <row r="22" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="32">
+        <f>SUM(D5:D21)</f>
+        <v>7</v>
+      </c>
+      <c r="E22" s="32">
+        <f>SUM(E5:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="32">
+        <f>SUM(F5:F21)</f>
+        <v>9</v>
+      </c>
+      <c r="G22" s="32">
+        <f>SUM(G5:G21)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="32">
+        <f>SUM(H5:H21)</f>
+        <v>6</v>
+      </c>
+      <c r="I22" s="32">
+        <f>SUM(I5:I21)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="32">
+        <f>SUM(J5:J21)</f>
+        <v>7</v>
+      </c>
+      <c r="K22" s="32">
+        <f>SUM(K5:K21)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="32">
+        <f>SUM(L5:L21)</f>
+        <v>9</v>
+      </c>
+      <c r="M22" s="32">
+        <f>SUM(M5:M21)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="32">
+        <f>SUM(N5:N21)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="33"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+    </row>
+    <row r="23" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="54">
+        <v>2</v>
+      </c>
+      <c r="B23" s="55">
         <v>43192</v>
       </c>
-      <c r="C22" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="4">
-        <f>E22+G22+I22+K22+M22</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="51"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="43"/>
-    </row>
-    <row r="23" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54">
-        <v>2</v>
-      </c>
-      <c r="B23" s="55">
-        <v>43193</v>
-      </c>
       <c r="C23" s="56" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -1399,15 +1508,15 @@
       <c r="P23" s="48"/>
       <c r="Q23" s="43"/>
     </row>
-    <row r="24" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <v>2</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="55">
         <v>43193</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>36</v>
+      <c r="C24" s="56" t="s">
+        <v>20</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -1420,21 +1529,23 @@
       <c r="L24" s="45"/>
       <c r="M24" s="45"/>
       <c r="N24" s="4">
-        <f t="shared" ref="N24:N46" si="2">E24+G24+I24+K24+M24</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="42"/>
-      <c r="P24" s="43"/>
+        <f>E24+G24+I24+K24+M24</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="51"/>
+      <c r="P24" s="48"/>
       <c r="Q24" s="43"/>
     </row>
-    <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>2</v>
       </c>
       <c r="B25" s="39">
         <v>43193</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
@@ -1446,14 +1557,14 @@
       <c r="L25" s="45"/>
       <c r="M25" s="45"/>
       <c r="N25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N25:N47" si="1">E25+G25+I25+K25+M25</f>
         <v>0</v>
       </c>
       <c r="O25" s="42"/>
       <c r="P25" s="43"/>
       <c r="Q25" s="43"/>
     </row>
-    <row r="26" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>2</v>
       </c>
@@ -1472,21 +1583,21 @@
       <c r="L26" s="45"/>
       <c r="M26" s="45"/>
       <c r="N26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O26" s="42"/>
       <c r="P26" s="43"/>
       <c r="Q26" s="43"/>
     </row>
-    <row r="27" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
         <v>2</v>
       </c>
       <c r="B27" s="39">
         <v>43193</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
@@ -1498,23 +1609,21 @@
       <c r="L27" s="45"/>
       <c r="M27" s="45"/>
       <c r="N27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O27" s="42"/>
       <c r="P27" s="43"/>
       <c r="Q27" s="43"/>
     </row>
-    <row r="28" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="54">
         <v>2</v>
       </c>
-      <c r="B28" s="55">
-        <v>43194</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>28</v>
-      </c>
+      <c r="B28" s="39">
+        <v>43193</v>
+      </c>
+      <c r="C28" s="10"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="8"/>
@@ -1526,21 +1635,23 @@
       <c r="L28" s="45"/>
       <c r="M28" s="45"/>
       <c r="N28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O28" s="42"/>
       <c r="P28" s="43"/>
       <c r="Q28" s="43"/>
     </row>
-    <row r="29" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54">
         <v>2</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="55">
         <v>43194</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
@@ -1552,14 +1663,14 @@
       <c r="L29" s="45"/>
       <c r="M29" s="45"/>
       <c r="N29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O29" s="42"/>
       <c r="P29" s="43"/>
       <c r="Q29" s="43"/>
     </row>
-    <row r="30" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54">
         <v>2</v>
       </c>
@@ -1578,14 +1689,14 @@
       <c r="L30" s="45"/>
       <c r="M30" s="45"/>
       <c r="N30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O30" s="42"/>
       <c r="P30" s="43"/>
       <c r="Q30" s="43"/>
     </row>
-    <row r="31" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>2</v>
       </c>
@@ -1604,14 +1715,14 @@
       <c r="L31" s="45"/>
       <c r="M31" s="45"/>
       <c r="N31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O31" s="42"/>
       <c r="P31" s="43"/>
       <c r="Q31" s="43"/>
     </row>
-    <row r="32" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
         <v>2</v>
       </c>
@@ -1630,14 +1741,14 @@
       <c r="L32" s="45"/>
       <c r="M32" s="45"/>
       <c r="N32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O32" s="42"/>
       <c r="P32" s="43"/>
       <c r="Q32" s="43"/>
     </row>
-    <row r="33" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
         <v>2</v>
       </c>
@@ -1656,23 +1767,21 @@
       <c r="L33" s="45"/>
       <c r="M33" s="45"/>
       <c r="N33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O33" s="42"/>
       <c r="P33" s="43"/>
       <c r="Q33" s="43"/>
     </row>
-    <row r="34" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <v>2</v>
       </c>
-      <c r="B34" s="55">
-        <v>43195</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>29</v>
-      </c>
+      <c r="B34" s="39">
+        <v>43194</v>
+      </c>
+      <c r="C34" s="11"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="8"/>
@@ -1684,21 +1793,23 @@
       <c r="L34" s="45"/>
       <c r="M34" s="45"/>
       <c r="N34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O34" s="42"/>
       <c r="P34" s="43"/>
       <c r="Q34" s="43"/>
     </row>
-    <row r="35" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="54">
         <v>2</v>
       </c>
-      <c r="B35" s="39">
+      <c r="B35" s="55">
         <v>43195</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="56" t="s">
+        <v>23</v>
+      </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="8"/>
@@ -1710,14 +1821,14 @@
       <c r="L35" s="45"/>
       <c r="M35" s="45"/>
       <c r="N35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O35" s="42"/>
       <c r="P35" s="43"/>
       <c r="Q35" s="43"/>
     </row>
-    <row r="36" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="54">
         <v>2</v>
       </c>
@@ -1736,14 +1847,14 @@
       <c r="L36" s="45"/>
       <c r="M36" s="45"/>
       <c r="N36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O36" s="42"/>
       <c r="P36" s="43"/>
       <c r="Q36" s="43"/>
     </row>
-    <row r="37" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54">
         <v>2</v>
       </c>
@@ -1762,21 +1873,21 @@
       <c r="L37" s="45"/>
       <c r="M37" s="45"/>
       <c r="N37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O37" s="42"/>
       <c r="P37" s="43"/>
       <c r="Q37" s="43"/>
     </row>
-    <row r="38" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <v>2</v>
       </c>
       <c r="B38" s="39">
         <v>43195</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="8"/>
@@ -1788,14 +1899,14 @@
       <c r="L38" s="45"/>
       <c r="M38" s="45"/>
       <c r="N38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O38" s="42"/>
       <c r="P38" s="43"/>
       <c r="Q38" s="43"/>
     </row>
-    <row r="39" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="54">
         <v>2</v>
       </c>
@@ -1814,14 +1925,14 @@
       <c r="L39" s="45"/>
       <c r="M39" s="45"/>
       <c r="N39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O39" s="42"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
     </row>
-    <row r="40" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <v>2</v>
       </c>
@@ -1840,23 +1951,21 @@
       <c r="L40" s="45"/>
       <c r="M40" s="45"/>
       <c r="N40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O40" s="42"/>
       <c r="P40" s="43"/>
       <c r="Q40" s="43"/>
     </row>
-    <row r="41" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <v>2</v>
       </c>
-      <c r="B41" s="55">
-        <v>43196</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>30</v>
-      </c>
+      <c r="B41" s="39">
+        <v>43195</v>
+      </c>
+      <c r="C41" s="10"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="8"/>
@@ -1868,21 +1977,23 @@
       <c r="L41" s="45"/>
       <c r="M41" s="45"/>
       <c r="N41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O41" s="42"/>
       <c r="P41" s="43"/>
       <c r="Q41" s="43"/>
     </row>
-    <row r="42" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="54">
         <v>2</v>
       </c>
-      <c r="B42" s="39">
+      <c r="B42" s="55">
         <v>43196</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="8"/>
@@ -1894,14 +2005,14 @@
       <c r="L42" s="45"/>
       <c r="M42" s="45"/>
       <c r="N42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O42" s="42"/>
       <c r="P42" s="43"/>
       <c r="Q42" s="43"/>
     </row>
-    <row r="43" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="54">
         <v>2</v>
       </c>
@@ -1920,14 +2031,14 @@
       <c r="L43" s="45"/>
       <c r="M43" s="45"/>
       <c r="N43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O43" s="42"/>
       <c r="P43" s="43"/>
       <c r="Q43" s="43"/>
     </row>
-    <row r="44" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="54">
         <v>2</v>
       </c>
@@ -1946,14 +2057,14 @@
       <c r="L44" s="45"/>
       <c r="M44" s="45"/>
       <c r="N44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O44" s="42"/>
       <c r="P44" s="43"/>
       <c r="Q44" s="43"/>
     </row>
-    <row r="45" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54">
         <v>2</v>
       </c>
@@ -1972,14 +2083,14 @@
       <c r="L45" s="45"/>
       <c r="M45" s="45"/>
       <c r="N45" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O45" s="42"/>
       <c r="P45" s="43"/>
       <c r="Q45" s="43"/>
     </row>
-    <row r="46" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="54">
         <v>2</v>
       </c>
@@ -1998,14 +2109,14 @@
       <c r="L46" s="45"/>
       <c r="M46" s="45"/>
       <c r="N46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O46" s="42"/>
       <c r="P46" s="43"/>
       <c r="Q46" s="43"/>
     </row>
-    <row r="47" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
         <v>2</v>
       </c>
@@ -2013,125 +2124,123 @@
         <v>43196</v>
       </c>
       <c r="C47" s="10"/>
-      <c r="D47" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="M47" s="46"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
       <c r="N47" s="4">
-        <f t="shared" ref="N47" si="3">E47+G47+I47+K47+M47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O47" s="42"/>
       <c r="P47" s="43"/>
       <c r="Q47" s="43"/>
     </row>
-    <row r="48" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="35" t="s">
+    <row r="48" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="54">
+        <v>2</v>
+      </c>
+      <c r="B48" s="39">
+        <v>43196</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="32">
-        <f>SUM(D22:D47)</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="32">
-        <f>SUM(E22:E47)</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="32">
-        <f t="shared" ref="F48:N48" si="4">SUM(F22:F47)</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="33"/>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="49"/>
-    </row>
-    <row r="49" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54">
-        <v>3</v>
-      </c>
-      <c r="B49" s="55">
-        <v>43199</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="4">
-        <f>E49+G49+I49+K49+M49</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="51"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="43"/>
-    </row>
-    <row r="50" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="17"/>
+      <c r="F48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="14"/>
+      <c r="J48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" s="46"/>
+      <c r="N48" s="4">
+        <f t="shared" ref="N48" si="2">E48+G48+I48+K48+M48</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="42"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+    </row>
+    <row r="49" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="32">
+        <f>SUM(D23:D48)</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="32">
+        <f>SUM(E23:E48)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="32">
+        <f t="shared" ref="F49:N49" si="3">SUM(F23:F48)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="33"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="49"/>
+    </row>
+    <row r="50" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="54">
         <v>3</v>
       </c>
-      <c r="B50" s="39">
+      <c r="B50" s="55">
         <v>43199</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>36</v>
+      <c r="C50" s="56" t="s">
+        <v>25</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
@@ -2151,14 +2260,16 @@
       <c r="P50" s="48"/>
       <c r="Q50" s="43"/>
     </row>
-    <row r="51" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="54">
         <v>3</v>
       </c>
       <c r="B51" s="39">
         <v>43199</v>
       </c>
-      <c r="C51" s="11"/>
+      <c r="C51" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
       <c r="F51" s="8"/>
@@ -2170,14 +2281,14 @@
       <c r="L51" s="45"/>
       <c r="M51" s="45"/>
       <c r="N51" s="4">
-        <f t="shared" ref="N51:N74" si="5">E51+G51+I51+K51+M51</f>
-        <v>0</v>
-      </c>
-      <c r="O51" s="42"/>
-      <c r="P51" s="43"/>
+        <f>E51+G51+I51+K51+M51</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="51"/>
+      <c r="P51" s="48"/>
       <c r="Q51" s="43"/>
     </row>
-    <row r="52" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
         <v>3</v>
       </c>
@@ -2196,14 +2307,14 @@
       <c r="L52" s="45"/>
       <c r="M52" s="45"/>
       <c r="N52" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N52:N75" si="4">E52+G52+I52+K52+M52</f>
         <v>0</v>
       </c>
       <c r="O52" s="42"/>
       <c r="P52" s="43"/>
       <c r="Q52" s="43"/>
     </row>
-    <row r="53" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="54">
         <v>3</v>
       </c>
@@ -2222,23 +2333,21 @@
       <c r="L53" s="45"/>
       <c r="M53" s="45"/>
       <c r="N53" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O53" s="42"/>
       <c r="P53" s="43"/>
       <c r="Q53" s="43"/>
     </row>
-    <row r="54" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="54">
         <v>3</v>
       </c>
-      <c r="B54" s="55">
-        <v>43200</v>
-      </c>
-      <c r="C54" s="56" t="s">
-        <v>32</v>
-      </c>
+      <c r="B54" s="39">
+        <v>43199</v>
+      </c>
+      <c r="C54" s="11"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="8"/>
@@ -2250,21 +2359,23 @@
       <c r="L54" s="45"/>
       <c r="M54" s="45"/>
       <c r="N54" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O54" s="42"/>
       <c r="P54" s="43"/>
       <c r="Q54" s="43"/>
     </row>
-    <row r="55" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="54">
         <v>3</v>
       </c>
-      <c r="B55" s="39">
+      <c r="B55" s="55">
         <v>43200</v>
       </c>
-      <c r="C55" s="11"/>
+      <c r="C55" s="56" t="s">
+        <v>26</v>
+      </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="8"/>
@@ -2276,14 +2387,14 @@
       <c r="L55" s="45"/>
       <c r="M55" s="45"/>
       <c r="N55" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O55" s="42"/>
       <c r="P55" s="43"/>
       <c r="Q55" s="43"/>
     </row>
-    <row r="56" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="54">
         <v>3</v>
       </c>
@@ -2302,14 +2413,14 @@
       <c r="L56" s="45"/>
       <c r="M56" s="45"/>
       <c r="N56" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O56" s="42"/>
       <c r="P56" s="43"/>
       <c r="Q56" s="43"/>
     </row>
-    <row r="57" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="54">
         <v>3</v>
       </c>
@@ -2328,14 +2439,14 @@
       <c r="L57" s="45"/>
       <c r="M57" s="45"/>
       <c r="N57" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O57" s="42"/>
       <c r="P57" s="43"/>
       <c r="Q57" s="43"/>
     </row>
-    <row r="58" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="54">
         <v>3</v>
       </c>
@@ -2354,14 +2465,14 @@
       <c r="L58" s="45"/>
       <c r="M58" s="45"/>
       <c r="N58" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O58" s="42"/>
       <c r="P58" s="43"/>
       <c r="Q58" s="43"/>
     </row>
-    <row r="59" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="54">
         <v>3</v>
       </c>
@@ -2380,23 +2491,21 @@
       <c r="L59" s="45"/>
       <c r="M59" s="45"/>
       <c r="N59" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O59" s="42"/>
       <c r="P59" s="43"/>
       <c r="Q59" s="43"/>
     </row>
-    <row r="60" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="54">
         <v>3</v>
       </c>
-      <c r="B60" s="55">
-        <v>43201</v>
-      </c>
-      <c r="C60" s="56" t="s">
-        <v>33</v>
-      </c>
+      <c r="B60" s="39">
+        <v>43200</v>
+      </c>
+      <c r="C60" s="11"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="8"/>
@@ -2408,21 +2517,23 @@
       <c r="L60" s="45"/>
       <c r="M60" s="45"/>
       <c r="N60" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O60" s="42"/>
       <c r="P60" s="43"/>
       <c r="Q60" s="43"/>
     </row>
-    <row r="61" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="54">
         <v>3</v>
       </c>
-      <c r="B61" s="39">
+      <c r="B61" s="55">
         <v>43201</v>
       </c>
-      <c r="C61" s="11"/>
+      <c r="C61" s="56" t="s">
+        <v>27</v>
+      </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="8"/>
@@ -2434,14 +2545,14 @@
       <c r="L61" s="45"/>
       <c r="M61" s="45"/>
       <c r="N61" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O61" s="42"/>
       <c r="P61" s="43"/>
       <c r="Q61" s="43"/>
     </row>
-    <row r="62" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="54">
         <v>3</v>
       </c>
@@ -2460,14 +2571,14 @@
       <c r="L62" s="45"/>
       <c r="M62" s="45"/>
       <c r="N62" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O62" s="42"/>
       <c r="P62" s="43"/>
       <c r="Q62" s="43"/>
     </row>
-    <row r="63" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="54">
         <v>3</v>
       </c>
@@ -2486,14 +2597,14 @@
       <c r="L63" s="45"/>
       <c r="M63" s="45"/>
       <c r="N63" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O63" s="42"/>
       <c r="P63" s="43"/>
       <c r="Q63" s="43"/>
     </row>
-    <row r="64" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="54">
         <v>3</v>
       </c>
@@ -2512,21 +2623,21 @@
       <c r="L64" s="45"/>
       <c r="M64" s="45"/>
       <c r="N64" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O64" s="42"/>
       <c r="P64" s="43"/>
       <c r="Q64" s="43"/>
     </row>
-    <row r="65" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="54">
         <v>3</v>
       </c>
       <c r="B65" s="39">
         <v>43201</v>
       </c>
-      <c r="C65" s="10"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="8"/>
@@ -2538,23 +2649,21 @@
       <c r="L65" s="45"/>
       <c r="M65" s="45"/>
       <c r="N65" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O65" s="42"/>
       <c r="P65" s="43"/>
       <c r="Q65" s="43"/>
     </row>
-    <row r="66" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="54">
         <v>3</v>
       </c>
-      <c r="B66" s="55">
-        <v>43202</v>
-      </c>
-      <c r="C66" s="56" t="s">
-        <v>34</v>
-      </c>
+      <c r="B66" s="39">
+        <v>43201</v>
+      </c>
+      <c r="C66" s="10"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="8"/>
@@ -2566,21 +2675,23 @@
       <c r="L66" s="45"/>
       <c r="M66" s="45"/>
       <c r="N66" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O66" s="42"/>
       <c r="P66" s="43"/>
       <c r="Q66" s="43"/>
     </row>
-    <row r="67" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="54">
         <v>3</v>
       </c>
-      <c r="B67" s="39">
+      <c r="B67" s="55">
         <v>43202</v>
       </c>
-      <c r="C67" s="10"/>
+      <c r="C67" s="56" t="s">
+        <v>28</v>
+      </c>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="8"/>
@@ -2592,14 +2703,14 @@
       <c r="L67" s="45"/>
       <c r="M67" s="45"/>
       <c r="N67" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O67" s="42"/>
       <c r="P67" s="43"/>
       <c r="Q67" s="43"/>
     </row>
-    <row r="68" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="54">
         <v>3</v>
       </c>
@@ -2618,14 +2729,14 @@
       <c r="L68" s="45"/>
       <c r="M68" s="45"/>
       <c r="N68" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O68" s="42"/>
       <c r="P68" s="43"/>
       <c r="Q68" s="43"/>
     </row>
-    <row r="69" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="54">
         <v>3</v>
       </c>
@@ -2644,14 +2755,14 @@
       <c r="L69" s="45"/>
       <c r="M69" s="45"/>
       <c r="N69" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O69" s="42"/>
       <c r="P69" s="43"/>
       <c r="Q69" s="43"/>
     </row>
-    <row r="70" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="54">
         <v>3</v>
       </c>
@@ -2670,14 +2781,14 @@
       <c r="L70" s="45"/>
       <c r="M70" s="45"/>
       <c r="N70" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O70" s="42"/>
       <c r="P70" s="43"/>
       <c r="Q70" s="43"/>
     </row>
-    <row r="71" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="54">
         <v>3</v>
       </c>
@@ -2696,14 +2807,14 @@
       <c r="L71" s="45"/>
       <c r="M71" s="45"/>
       <c r="N71" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O71" s="42"/>
       <c r="P71" s="43"/>
       <c r="Q71" s="43"/>
     </row>
-    <row r="72" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="54">
         <v>3</v>
       </c>
@@ -2722,23 +2833,21 @@
       <c r="L72" s="45"/>
       <c r="M72" s="45"/>
       <c r="N72" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O72" s="42"/>
       <c r="P72" s="43"/>
       <c r="Q72" s="43"/>
     </row>
-    <row r="73" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="54">
         <v>3</v>
       </c>
-      <c r="B73" s="55">
-        <v>43203</v>
-      </c>
-      <c r="C73" s="56" t="s">
-        <v>35</v>
-      </c>
+      <c r="B73" s="39">
+        <v>43202</v>
+      </c>
+      <c r="C73" s="10"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="8"/>
@@ -2750,169 +2859,197 @@
       <c r="L73" s="45"/>
       <c r="M73" s="45"/>
       <c r="N73" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O73" s="42"/>
       <c r="P73" s="43"/>
       <c r="Q73" s="43"/>
     </row>
-    <row r="74" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="54">
         <v>3</v>
       </c>
-      <c r="B74" s="39">
+      <c r="B74" s="55">
         <v>43203</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="14"/>
-      <c r="J74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K74" s="3"/>
-      <c r="L74" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="M74" s="46"/>
+      <c r="C74" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="45"/>
       <c r="N74" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O74" s="42"/>
       <c r="P74" s="43"/>
       <c r="Q74" s="43"/>
     </row>
-    <row r="75" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="35" t="s">
+    <row r="75" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="54">
+        <v>3</v>
+      </c>
+      <c r="B75" s="39">
+        <v>43203</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="32">
-        <f>SUM(D49:D74)</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="32">
-        <f t="shared" ref="E75:N75" si="6">SUM(E49:E74)</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="32">
+      <c r="E75" s="17"/>
+      <c r="F75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="14"/>
+      <c r="J75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="3"/>
+      <c r="L75" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="M75" s="46"/>
+      <c r="N75" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="42"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+    </row>
+    <row r="76" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="32">
+        <f>SUM(D50:D75)</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="32">
+        <f t="shared" ref="E76:N76" si="5">SUM(E50:E75)</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="33"/>
+      <c r="P76" s="49"/>
+      <c r="Q76" s="49"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="24"/>
+    </row>
+    <row r="78" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="37">
+        <f>(D22+D49+D76)</f>
+        <v>7</v>
+      </c>
+      <c r="F78" s="37">
+        <f t="shared" ref="F78:N78" si="6">SUM(F22+F49+F76)</f>
+        <v>9</v>
+      </c>
+      <c r="G78" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G75" s="32">
+      <c r="H78" s="37">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="32">
+        <v>6</v>
+      </c>
+      <c r="I78" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I75" s="32">
+      <c r="J78" s="37">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="32">
+        <v>7</v>
+      </c>
+      <c r="K78" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K75" s="32">
+      <c r="L78" s="37">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L75" s="32">
+        <v>9</v>
+      </c>
+      <c r="M78" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M75" s="32">
+      <c r="N78" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N75" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O75" s="33"/>
-      <c r="P75" s="49"/>
-      <c r="Q75" s="49"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="24"/>
-    </row>
-    <row r="77" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="37">
-        <f>(D21+D48+D75)</f>
-        <v>0</v>
-      </c>
-      <c r="F77" s="37">
-        <f t="shared" ref="F77:N77" si="7">SUM(F21+F48+F75)</f>
-        <v>0</v>
-      </c>
-      <c r="G77" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N77" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="9"/>
-      <c r="P77" s="50"/>
-      <c r="Q77" s="50"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="50"/>
+      <c r="Q78" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2937,7 +3074,7 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2946,13 +3083,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">9999</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Formulier</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3117,12 +3253,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">9999</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Formulier</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3130,17 +3267,44 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3365A2B0-CBB1-43B0-966D-56CC876D23EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3365A2B0-CBB1-43B0-966D-56CC876D23EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>